--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c3pot_000\Desktop\NYP Work\Team-E-Studio-Project-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glen\Desktop\On-Going Projects and Assignments\Team-E-Studio-Project-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>No.</t>
   </si>
@@ -195,13 +195,49 @@
   </si>
   <si>
     <t>Level 4 Design</t>
+  </si>
+  <si>
+    <t>Player Class</t>
+  </si>
+  <si>
+    <t>Game UI (Basic)</t>
+  </si>
+  <si>
+    <t>Scene Layout (Sample)</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>OBJ Vertices Cleanup</t>
+  </si>
+  <si>
+    <t>OBJ Items</t>
+  </si>
+  <si>
+    <t>OBJ Props</t>
+  </si>
+  <si>
+    <t>Menu States</t>
+  </si>
+  <si>
+    <t>Invisibility Feature</t>
+  </si>
+  <si>
+    <t>Peeing Feature</t>
+  </si>
+  <si>
+    <t>Level design and planning (Level 1)</t>
+  </si>
+  <si>
+    <t>Win/Lose/Restart Functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +251,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +299,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,16 +423,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -386,26 +444,37 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,51 +756,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="17" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
@@ -778,11 +847,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -799,8 +868,8 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -822,8 +891,8 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
@@ -841,8 +910,8 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -864,8 +933,8 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2"/>
@@ -883,8 +952,8 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -906,8 +975,8 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="2"/>
@@ -925,8 +994,8 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -948,8 +1017,8 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -967,8 +1036,8 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -990,8 +1059,8 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="5"/>
@@ -1009,8 +1078,8 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1032,8 +1101,8 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1051,8 +1120,8 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1074,8 +1143,8 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1093,8 +1162,8 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1116,8 +1185,8 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1135,8 +1204,8 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1158,8 +1227,8 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1177,8 +1246,8 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1200,8 +1269,8 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1219,8 +1288,8 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1242,8 +1311,8 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1261,8 +1330,8 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1284,8 +1353,8 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1303,8 +1372,8 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1326,8 +1395,8 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
       <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1345,8 +1414,8 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1368,8 +1437,8 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
       <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1387,8 +1456,8 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1410,8 +1479,8 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
       <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1429,8 +1498,8 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1452,8 +1521,8 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1471,8 +1540,8 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="18">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1494,8 +1563,8 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1513,8 +1582,8 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="18">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1536,8 +1605,8 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1555,8 +1624,8 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1578,8 +1647,8 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1597,8 +1666,8 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
         <v>20</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1620,8 +1689,8 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1639,8 +1708,8 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
         <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1662,8 +1731,8 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1681,11 +1750,11 @@
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1732,12 +1801,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
         <v>1</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="30"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1750,13 +1821,13 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="24"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1769,15 +1840,17 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
         <v>2</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="30"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1790,13 +1863,13 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1809,17 +1882,19 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="18">
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
         <v>3</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -1830,16 +1905,16 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -1849,16 +1924,18 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="18">
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
         <v>4</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -1870,13 +1947,13 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1889,18 +1966,20 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="18">
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
         <v>5</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="29"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="30"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -1910,17 +1989,17 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -1929,19 +2008,21 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="18">
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
         <v>6</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -1950,18 +2031,18 @@
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -1969,19 +2050,21 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="18">
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
         <v>7</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="30"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -1990,18 +2073,18 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -2009,20 +2092,22 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="18">
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
         <v>8</v>
       </c>
-      <c r="B62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -2030,51 +2115,53 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="18">
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
         <v>9</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="29"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
       <c r="B65" s="5"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2082,21 +2169,23 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
         <v>10</v>
       </c>
-      <c r="B66" s="3"/>
+      <c r="B66" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2104,17 +2193,17 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
       <c r="B67" s="5"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2123,20 +2212,22 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="18">
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
         <v>11</v>
       </c>
-      <c r="B68" s="3"/>
+      <c r="B68" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2146,37 +2237,39 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="31"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="29"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="24">
         <v>12</v>
       </c>
-      <c r="B70" s="3"/>
+      <c r="B70" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2186,15 +2279,15 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="30"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="24"/>
       <c r="B71" s="5"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2206,99 +2299,114 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
-        <v>13</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
+        <v>21</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
-        <v>14</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
-        <v>15</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="24">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -2310,14 +2418,14 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="24"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -2329,18 +2437,20 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
-        <v>16</v>
-      </c>
-      <c r="B78" s="3"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="24">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -2350,15 +2460,15 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="24"/>
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="10"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -2369,19 +2479,21 @@
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="18">
-        <v>17</v>
-      </c>
-      <c r="B80" s="3"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="21">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="13"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -2390,17 +2502,17 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
       <c r="B81" s="5"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -2409,20 +2521,22 @@
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
-        <v>18</v>
-      </c>
-      <c r="B82" s="3"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="H82" s="13"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -2430,18 +2544,18 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="H83" s="10"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -2449,20 +2563,22 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="18">
-        <v>19</v>
-      </c>
-      <c r="B84" s="3"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="H84" s="13"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -2470,73 +2586,77 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
-        <v>20</v>
-      </c>
-      <c r="B86" s="3"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
       <c r="B87" s="5"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="10"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
-        <v>21</v>
-      </c>
-      <c r="B88" s="3"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2545,16 +2665,16 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
       <c r="B89" s="5"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -2564,74 +2684,65 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="10"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="21"/>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
         <v>8</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="B90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
         <v>9</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
-        <v>1</v>
-      </c>
       <c r="B92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -2641,16 +2752,16 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
+      <c r="N92" s="13"/>
       <c r="O92" s="3"/>
       <c r="P92" s="9"/>
       <c r="Q92" s="9"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -2660,22 +2771,22 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+      <c r="N93" s="10"/>
       <c r="O93" s="3"/>
       <c r="P93" s="9"/>
       <c r="Q93" s="9"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
-        <v>2</v>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="21">
+        <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -2684,16 +2795,16 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
+      <c r="O94" s="13"/>
       <c r="P94" s="9"/>
       <c r="Q94" s="9"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="22"/>
       <c r="B95" s="5"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="10"/>
+      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -2702,23 +2813,23 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
+      <c r="N95" s="10"/>
       <c r="O95" s="3"/>
       <c r="P95" s="9"/>
       <c r="Q95" s="9"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="18">
-        <v>3</v>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="21">
+        <v>11</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="13"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -2726,163 +2837,172 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
+      <c r="O96" s="13"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="22"/>
       <c r="B97" s="5"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
+      <c r="N97" s="10"/>
       <c r="O97" s="3"/>
       <c r="P97" s="9"/>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="18">
-        <v>4</v>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="24">
+        <v>12</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="13"/>
+      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="3"/>
+      <c r="O98" s="13"/>
       <c r="P98" s="9"/>
       <c r="Q98" s="9"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="24"/>
       <c r="B99" s="5"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="10"/>
+      <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
+      <c r="N99" s="10"/>
       <c r="O99" s="3"/>
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
-        <v>5</v>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" s="24">
+        <v>13</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
       <c r="H100" s="13"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
       <c r="P100" s="9"/>
       <c r="Q100" s="9"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
       <c r="P101" s="9"/>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="18">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="23"/>
+      <c r="C103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="9"/>
-      <c r="Q103" s="9"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="18">
+      <c r="E103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C104" s="3"/>
+      <c r="F103" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q103" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="24">
+        <v>1</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C104" s="15"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -2890,26 +3010,26 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="9"/>
       <c r="Q104" s="9"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="19"/>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="24"/>
       <c r="B105" s="5"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="10"/>
+      <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
@@ -2917,15 +3037,15 @@
       <c r="P105" s="9"/>
       <c r="Q105" s="9"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="18">
-        <v>8</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>45</v>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" s="24">
+        <v>2</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="15"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -2933,42 +3053,42 @@
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="9"/>
       <c r="Q106" s="9"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="19"/>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="24"/>
       <c r="B107" s="5"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="9"/>
       <c r="Q107" s="9"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="18">
-        <v>9</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>44</v>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" s="21">
+        <v>3</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -2977,17 +3097,17 @@
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
-      <c r="N108" s="13"/>
+      <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="9"/>
       <c r="Q108" s="9"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="19"/>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
       <c r="B109" s="5"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -2996,23 +3116,23 @@
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
-      <c r="N109" s="10"/>
+      <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="9"/>
       <c r="Q109" s="9"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="18">
-        <v>10</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>42</v>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <v>4</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -3020,17 +3140,17 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
-      <c r="O110" s="13"/>
+      <c r="O110" s="3"/>
       <c r="P110" s="9"/>
       <c r="Q110" s="9"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="19"/>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
       <c r="B111" s="5"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+      <c r="F111" s="10"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -3038,59 +3158,59 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
-      <c r="N111" s="10"/>
+      <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="9"/>
       <c r="Q111" s="9"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="18">
-        <v>11</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>43</v>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" s="21">
+        <v>5</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
-      <c r="O112" s="13"/>
+      <c r="O112" s="3"/>
       <c r="P112" s="9"/>
       <c r="Q112" s="9"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="19"/>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
       <c r="B113" s="5"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
-      <c r="N113" s="10"/>
+      <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="9"/>
       <c r="Q113" s="9"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="17">
-        <v>12</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>46</v>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114" s="21">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3099,17 +3219,17 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
-      <c r="O114" s="13"/>
+      <c r="O114" s="3"/>
       <c r="P114" s="9"/>
       <c r="Q114" s="9"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
       <c r="B115" s="5"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3117,117 +3237,108 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-      <c r="N115" s="10"/>
+      <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="9"/>
       <c r="Q115" s="9"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
-        <v>13</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116" s="21">
+        <v>7</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
       <c r="P116" s="9"/>
       <c r="Q116" s="9"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
       <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
       <c r="P117" s="9"/>
       <c r="Q117" s="9"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" s="8" t="s">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118" s="21">
         <v>8</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="B118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120" s="21">
         <v>9</v>
       </c>
-      <c r="H119" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M119" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N119" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P119" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q119" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="17">
-        <v>1</v>
-      </c>
       <c r="B120" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C120" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -3238,39 +3349,39 @@
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="11"/>
       <c r="P120" s="9"/>
       <c r="Q120" s="9"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
       <c r="B121" s="5"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
+      <c r="L121" s="10"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="9"/>
       <c r="Q121" s="9"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="17">
-        <v>2</v>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122" s="21">
+        <v>10</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C122" s="3"/>
-      <c r="D122" s="23"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -3281,15 +3392,15 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
+      <c r="O122" s="15"/>
       <c r="P122" s="9"/>
       <c r="Q122" s="9"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="17"/>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123" s="22"/>
       <c r="B123" s="5"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -3298,838 +3409,477 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
       <c r="P123" s="9"/>
       <c r="Q123" s="9"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="18">
-        <v>3</v>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A124" s="21">
+        <v>11</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="23"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
-      <c r="L124" s="3"/>
-      <c r="M124" s="3"/>
-      <c r="N124" s="3"/>
-      <c r="O124" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
       <c r="P124" s="9"/>
       <c r="Q124" s="9"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="19"/>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A125" s="22"/>
       <c r="B125" s="5"/>
-      <c r="C125" s="3"/>
+      <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
-      <c r="L125" s="3"/>
-      <c r="M125" s="3"/>
-      <c r="N125" s="3"/>
-      <c r="O125" s="3"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
       <c r="P125" s="9"/>
       <c r="Q125" s="9"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="18">
-        <v>4</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="9"/>
-      <c r="Q126" s="9"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A126" s="19"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="16"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="19"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="9"/>
-      <c r="Q127" s="9"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="18">
-        <v>5</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="9"/>
-      <c r="Q128" s="9"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="18"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
+      <c r="M127" s="16"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+      <c r="Q127" s="16"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A128" s="19"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
+      <c r="M128" s="16"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+      <c r="Q128" s="16"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="3"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
-      <c r="L129" s="3"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="9"/>
-      <c r="Q129" s="9"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="18">
-        <v>6</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="9"/>
-      <c r="Q130" s="9"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="18"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+      <c r="Q129" s="16"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A130" s="19"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="16"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="16"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="19"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="3"/>
-      <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
-      <c r="N131" s="3"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="18">
-        <v>7</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="23"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="18"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
+      <c r="M131" s="16"/>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+      <c r="Q131" s="16"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A132" s="19"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="16"/>
+      <c r="N132" s="16"/>
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="16"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="3"/>
-      <c r="M133" s="3"/>
-      <c r="N133" s="3"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="18">
-        <v>8</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="23"/>
-      <c r="N134" s="11"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="18"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
+      <c r="M133" s="16"/>
+      <c r="N133" s="16"/>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+      <c r="Q133" s="16"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A134" s="19"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
+      <c r="M134" s="16"/>
+      <c r="N134" s="16"/>
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="16"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-      <c r="J135" s="3"/>
-      <c r="K135" s="3"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="18">
-        <v>9</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-      <c r="J136" s="3"/>
-      <c r="K136" s="3"/>
-      <c r="L136" s="3"/>
-      <c r="M136" s="3"/>
-      <c r="N136" s="23"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="18"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
+      <c r="M135" s="16"/>
+      <c r="N135" s="16"/>
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+      <c r="Q135" s="16"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" s="19"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
+      <c r="M136" s="16"/>
+      <c r="N136" s="16"/>
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="16"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="3"/>
-      <c r="J137" s="3"/>
-      <c r="K137" s="3"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="18">
-        <v>10</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-      <c r="O138" s="23"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="18"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
+      <c r="M137" s="16"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+      <c r="Q137" s="16"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" s="19"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="16"/>
+      <c r="N138" s="16"/>
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="16"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
-      <c r="K139" s="3"/>
-      <c r="L139" s="3"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" s="18">
-        <v>11</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="23"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="23"/>
-      <c r="M140" s="23"/>
-      <c r="N140" s="23"/>
-      <c r="O140" s="23"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B139" s="18"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
+      <c r="M139" s="16"/>
+      <c r="N139" s="16"/>
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+      <c r="Q139" s="16"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A140" s="19"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
+      <c r="M140" s="16"/>
+      <c r="N140" s="16"/>
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+      <c r="Q140" s="16"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="19"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="24"/>
-      <c r="B142" s="27"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
-      <c r="J142" s="25"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
-      <c r="M142" s="25"/>
-      <c r="N142" s="25"/>
-      <c r="O142" s="25"/>
-      <c r="P142" s="25"/>
-      <c r="Q142" s="25"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="24"/>
-      <c r="B143" s="28"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="25"/>
-      <c r="O143" s="25"/>
-      <c r="P143" s="25"/>
-      <c r="Q143" s="25"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="24"/>
-      <c r="B144" s="27"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="25"/>
-      <c r="P144" s="25"/>
-      <c r="Q144" s="25"/>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A145" s="24"/>
-      <c r="B145" s="28"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
-      <c r="N145" s="25"/>
-      <c r="O145" s="25"/>
-      <c r="P145" s="25"/>
-      <c r="Q145" s="25"/>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A146" s="24"/>
-      <c r="B146" s="27"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="25"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="25"/>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
-      <c r="M146" s="25"/>
-      <c r="N146" s="25"/>
-      <c r="O146" s="25"/>
-      <c r="P146" s="25"/>
-      <c r="Q146" s="25"/>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A147" s="24"/>
-      <c r="B147" s="28"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="25"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
-      <c r="M147" s="25"/>
-      <c r="N147" s="25"/>
-      <c r="O147" s="25"/>
-      <c r="P147" s="25"/>
-      <c r="Q147" s="25"/>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="27"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="25"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
-      <c r="M148" s="25"/>
-      <c r="N148" s="25"/>
-      <c r="O148" s="25"/>
-      <c r="P148" s="25"/>
-      <c r="Q148" s="25"/>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="25"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="25"/>
-      <c r="L149" s="25"/>
-      <c r="M149" s="25"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="25"/>
-      <c r="P149" s="25"/>
-      <c r="Q149" s="25"/>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="27"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="25"/>
-      <c r="P150" s="25"/>
-      <c r="Q150" s="25"/>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="25"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="25"/>
-      <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
-      <c r="M151" s="25"/>
-      <c r="N151" s="25"/>
-      <c r="O151" s="25"/>
-      <c r="P151" s="25"/>
-      <c r="Q151" s="25"/>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A152" s="24"/>
-      <c r="B152" s="27"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="25"/>
-      <c r="H152" s="25"/>
-      <c r="I152" s="25"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="25"/>
-      <c r="L152" s="25"/>
-      <c r="M152" s="25"/>
-      <c r="N152" s="25"/>
-      <c r="O152" s="25"/>
-      <c r="P152" s="25"/>
-      <c r="Q152" s="25"/>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A153" s="24"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="25"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="25"/>
-      <c r="L153" s="25"/>
-      <c r="M153" s="25"/>
-      <c r="N153" s="25"/>
-      <c r="O153" s="25"/>
-      <c r="P153" s="25"/>
-      <c r="Q153" s="25"/>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A154" s="24"/>
-      <c r="B154" s="27"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="25"/>
-      <c r="L154" s="25"/>
-      <c r="M154" s="25"/>
-      <c r="N154" s="25"/>
-      <c r="O154" s="25"/>
-      <c r="P154" s="25"/>
-      <c r="Q154" s="25"/>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="28"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
-      <c r="F155" s="25"/>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="25"/>
-      <c r="K155" s="25"/>
-      <c r="L155" s="25"/>
-      <c r="M155" s="25"/>
-      <c r="N155" s="25"/>
-      <c r="O155" s="25"/>
-      <c r="P155" s="25"/>
-      <c r="Q155" s="25"/>
-    </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A156" s="24"/>
-      <c r="B156" s="27"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-      <c r="M156" s="25"/>
-      <c r="N156" s="25"/>
-      <c r="O156" s="25"/>
-      <c r="P156" s="25"/>
-      <c r="Q156" s="25"/>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A157" s="24"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
-      <c r="F157" s="25"/>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-      <c r="M157" s="25"/>
-      <c r="N157" s="25"/>
-      <c r="O157" s="25"/>
-      <c r="P157" s="25"/>
-      <c r="Q157" s="25"/>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A158" s="26"/>
-      <c r="B158" s="27"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
-      <c r="F158" s="25"/>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="25"/>
-      <c r="O158" s="25"/>
-      <c r="P158" s="25"/>
-      <c r="Q158" s="25"/>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A159" s="26"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
-      <c r="F159" s="25"/>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
-      <c r="I159" s="25"/>
-      <c r="J159" s="25"/>
-      <c r="K159" s="25"/>
-      <c r="L159" s="25"/>
-      <c r="M159" s="25"/>
-      <c r="N159" s="25"/>
-      <c r="O159" s="25"/>
-      <c r="P159" s="25"/>
-      <c r="Q159" s="25"/>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A160" s="26"/>
-      <c r="B160" s="27"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
-      <c r="F160" s="25"/>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-      <c r="M160" s="25"/>
-      <c r="N160" s="25"/>
-      <c r="O160" s="25"/>
-      <c r="P160" s="25"/>
-      <c r="Q160" s="25"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="26"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
-      <c r="F161" s="25"/>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-      <c r="M161" s="25"/>
-      <c r="N161" s="25"/>
-      <c r="O161" s="25"/>
-      <c r="P161" s="25"/>
-      <c r="Q161" s="25"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="25"/>
-      <c r="B162" s="25"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
-      <c r="F162" s="25"/>
-      <c r="G162" s="25"/>
-      <c r="H162" s="25"/>
-      <c r="I162" s="25"/>
-      <c r="J162" s="25"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
-      <c r="M162" s="25"/>
-      <c r="N162" s="25"/>
-      <c r="O162" s="25"/>
-      <c r="P162" s="25"/>
-      <c r="Q162" s="25"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
+      <c r="M141" s="16"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+      <c r="Q141" s="16"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" s="20"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
+      <c r="M142" s="16"/>
+      <c r="N142" s="16"/>
+      <c r="O142" s="16"/>
+      <c r="P142" s="16"/>
+      <c r="Q142" s="16"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" s="20"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
+      <c r="M143" s="16"/>
+      <c r="N143" s="16"/>
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+      <c r="Q143" s="16"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A144" s="20"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
+      <c r="M144" s="16"/>
+      <c r="N144" s="16"/>
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+      <c r="Q144" s="16"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A145" s="20"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
+      <c r="M145" s="16"/>
+      <c r="N145" s="16"/>
+      <c r="O145" s="16"/>
+      <c r="P145" s="16"/>
+      <c r="Q145" s="16"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
+      <c r="M146" s="16"/>
+      <c r="N146" s="16"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="16"/>
+      <c r="Q146" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A91:B91"/>
+  <mergeCells count="77">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="A38:A39"/>
@@ -4146,30 +3896,47 @@
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>